--- a/MATLAB/src/Learning.xlsx
+++ b/MATLAB/src/Learning.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,540 +414,498 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>河流</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Result</v>
-      </c>
-      <c r="C1" t="str">
-        <v>含氧量(ppm)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PH值</v>
-      </c>
-      <c r="E1" t="str">
-        <v>细菌总数(个/mL)</v>
-      </c>
-      <c r="F1" t="str">
-        <v>植物性营养物量(ppm)</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>河流</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>含氧量(ppm)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PH值</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>细菌总数(个/mL)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>植物性营养物量(ppm)</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>A</v>
-      </c>
-      <c r="B2" t="str">
-        <v>78.78141684</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.78141683816935</v>
+      </c>
+      <c r="C2" t="n">
         <v>4.69</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="n">
         <v>6.59</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" t="n">
         <v>51</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" t="n">
         <v>11.94</v>
       </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>B</v>
-      </c>
-      <c r="B3" t="str">
-        <v>56.59289464</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56.59289464305779</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.03</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" t="n">
         <v>7.86</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="n">
         <v>19</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" t="n">
         <v>6.46</v>
       </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>C</v>
-      </c>
-      <c r="B4" t="str">
-        <v>5.012098465</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.012098465269918</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="n">
         <v>11</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="n">
         <v>1000</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>D</v>
-      </c>
-      <c r="B5" t="str">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>100</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" t="n">
         <v>15</v>
       </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>E</v>
-      </c>
-      <c r="B6" t="str">
-        <v>75.73381129</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75.73381128530735</v>
+      </c>
+      <c r="C6" t="n">
         <v>7.13</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" t="n">
         <v>6.5</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" t="n">
         <v>50</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" t="n">
         <v>23.57</v>
       </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>F</v>
-      </c>
-      <c r="B7" t="str">
-        <v>56.20831659</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.20831658833998</v>
+      </c>
+      <c r="C7" t="n">
         <v>2.39</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" t="n">
         <v>6.77</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" t="n">
         <v>38</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" t="n">
         <v>24.62</v>
       </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>G</v>
-      </c>
-      <c r="B8" t="str">
-        <v>77.61434321</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77.61434321237181</v>
+      </c>
+      <c r="C8" t="n">
         <v>7.69</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" t="n">
         <v>6.79</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" t="n">
         <v>38</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" t="n">
         <v>6.01</v>
       </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>H</v>
-      </c>
-      <c r="B9" t="str">
-        <v>59.49615705</v>
-      </c>
-      <c r="C9" t="str">
-        <v>9.3</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>59.49615705068647</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D9" t="n">
         <v>6.81</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" t="n">
         <v>27</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" t="n">
         <v>31.57</v>
       </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>I</v>
-      </c>
-      <c r="B10" t="str">
-        <v>81.15046787</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.15046787030776</v>
+      </c>
+      <c r="C10" t="n">
         <v>5.45</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" t="n">
         <v>7.62</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" t="n">
         <v>5</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" t="n">
         <v>18.46</v>
       </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>J</v>
-      </c>
-      <c r="B11" t="str">
-        <v>76.98744723</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.98744722898141</v>
+      </c>
+      <c r="C11" t="n">
         <v>6.19</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" t="n">
         <v>7.27</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" t="n">
         <v>17</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" t="n">
         <v>7.51</v>
       </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>K</v>
-      </c>
-      <c r="B12" t="str">
-        <v>79.35119089</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.35119088851164</v>
+      </c>
+      <c r="C12" t="n">
         <v>7.93</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" t="n">
         <v>7.53</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" t="n">
         <v>9</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" t="n">
         <v>6.52</v>
       </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>L</v>
-      </c>
-      <c r="B13" t="str">
-        <v>61.45493011</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.45493011391484</v>
+      </c>
+      <c r="C13" t="n">
         <v>4.4</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" t="n">
         <v>7.28</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" t="n">
         <v>17</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" t="n">
         <v>25.3</v>
       </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>M</v>
-      </c>
-      <c r="B14" t="str">
-        <v>86.05413748</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>86.0541374835561</v>
+      </c>
+      <c r="C14" t="n">
         <v>7.46</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" t="n">
         <v>8.24</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" t="n">
         <v>23</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" t="n">
         <v>14.42</v>
       </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>N</v>
-      </c>
-      <c r="B15" t="str">
-        <v>44.99094745</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>44.99094744944387</v>
+      </c>
+      <c r="C15" t="n">
         <v>2.01</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" t="n">
         <v>5.55</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" t="n">
         <v>47</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" t="n">
         <v>26.31</v>
       </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>0</v>
-      </c>
-      <c r="B16" t="str">
-        <v>68.56029255</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.56029255154019</v>
+      </c>
+      <c r="C16" t="n">
         <v>2.04</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" t="n">
         <v>6.4</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" t="n">
         <v>23</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" t="n">
         <v>17.91</v>
       </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>P</v>
-      </c>
-      <c r="B17" t="str">
-        <v>88.01748626</v>
-      </c>
-      <c r="C17" t="str">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.01748626039668</v>
+      </c>
+      <c r="C17" t="n">
         <v>7.73</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" t="n">
         <v>6.14</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" t="n">
         <v>52</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" t="n">
         <v>15.72</v>
       </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>Q</v>
-      </c>
-      <c r="B18" t="str">
-        <v>54.11989816</v>
-      </c>
-      <c r="C18" t="str">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>54.11989816325326</v>
+      </c>
+      <c r="C18" t="n">
         <v>6.35</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" t="n">
         <v>7.58</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" t="n">
         <v>25</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" t="n">
         <v>29.46</v>
       </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>R</v>
-      </c>
-      <c r="B19" t="str">
-        <v>88.27525787</v>
-      </c>
-      <c r="C19" t="str">
-        <v>8.29</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>88.27525786783613</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="D19" t="n">
         <v>8.41</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" t="n">
         <v>39</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" t="n">
         <v>12.02</v>
       </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>S</v>
-      </c>
-      <c r="B20" t="str">
-        <v>52.96960413</v>
-      </c>
-      <c r="C20" t="str">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>52.96960412744524</v>
+      </c>
+      <c r="C20" t="n">
         <v>3.54</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" t="n">
         <v>7.27</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" t="n">
         <v>54</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" t="n">
         <v>3.16</v>
       </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>T</v>
-      </c>
-      <c r="B21" t="str">
-        <v>61.09461992</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>61.09461991927145</v>
+      </c>
+      <c r="C21" t="n">
         <v>7.44</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" t="n">
         <v>6.26</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" t="n">
         <v>8</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21" t="n">
         <v>28.41</v>
       </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>